--- a/Модуль №6.xlsx
+++ b/Модуль №6.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.5184"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="Workbook________" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22188" windowHeight="9036" tabRatio="682" firstSheet="1" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22668" windowHeight="9036" tabRatio="740" firstSheet="1" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId4"/>
@@ -18,7 +18,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="218">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="218">
+  <x:si>
+    <x:t>Вход не осуществлен появилась всплывающая подсказка: "Вставить логин и пароль"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка перехода главной страницы вконтакте на другой язык с языковой панели</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразилось поисковое поле с текстом-подсказкой "Поиск по истории сообщения"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка функции "забыли пароль" с использованием номера телефона пользователя</x:t>
+  </x:si>
   <x:si>
     <x:r>
       <x:rPr>
@@ -27,20 +39,328 @@
         <x:color rgb="ff000000"/>
         <x:i val="1"/>
       </x:rPr>
-      <x:t xml:space="preserve">Предусловие:  Выбрать пункт "Сообщения" вконтакте, предварительно с добавленными друзьями из БД;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Набрать в поисковом поле поочередно:
-1. цифры
-2. спец. символы
-3. не существующих людей в друзьях;</x:t>
-    </x:r>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать друга, у которого с нами есть переписка;
+Выбрать сообщение;
+Нажать на иконку "Это спам";
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения"вконтакте;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Нажать кнопку "+";
+Нажать кнопку "х" напротив "Создание беседы";</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Отобразилась главная страница вконтакте на дореволюционном языке. На языковой панели добавилось: "Дореволюцiонный"</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Открылась страница с сообщением  "Не удаётся войти. Пожалуйста, проверьте правильность написания логина и пароля" </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Главная страница вконтакте полностью отобразилась на английском языке, кроме названия языков на языковой панели</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не можем ввести 4097 знаков (т.к. , допустим, у разработчика узнали, что максимальное количество знаков - 4096</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вместо сообщения отобразился текст: "Сообщение помечено как спам и удалено"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Перейти на сайт vk.com;
+Ввести в поле "Телефон или email" : vera.s@ya.ru;
+Нажать кнопку "Забыли пароль?";</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения" вконтакте;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Нажать на иконку с изображением значка настройки;
+Выбрать пункт "Спам";</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие:Открыть главную страницу вконтакте  на русском языке;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Нажать в окне "Выберите Ваш язык" на ссылку "Deutsch";</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения"вконтакте;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Набрать любое слово в поисковом поле;
+Нажать "х" напротив поискового слова;</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Главная страница вконтакте полностью отобразилась на немецком языке, кроме названия языков на языковой панели. На языковой панели появился ещё и Deutsch</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения" вконткте;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Нажать на иконку с изображением значка настройки;
+Выбрать пункт "Настройки уведовмлений";</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Проверка возможности выбора языка ссылки "все языки" на странице пользователя</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Рабочие комнады на странице пользователя отобразились на дореволюционном языке</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать друга, у которого с нами есть переписка;
+Навести курсор мыши на иконку с изображенем меню;
+Выбрать команду "Очистить историю сообщений";
+Подтвердить удаления, нажав кнопку "Удалить";
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Войти на сайт любым способом;
+Нажать на иконку "стрелочка вниз" в правом верхнем углу около имени пользователя;
+Выбрать  вкладку "выйти";</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать друга, которому надо отправить смайлик;
+Нажать на иконку с изображением смайлика;
+Нажать на выбранный смайлик;
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Отобразилось пустое поисковое окно с текстом подсказкой "Введите название языка"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка шрифтов, размеров и взаимного расположения кнопок, команд и их названий</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать друга, у которого с нами есть переписка;
+Навести курсор мыши на иконку с изображенем меню;
+Выбрать команду "Поиск по истории сообщения";
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать друга, которому надо написать сообщение;
+Ввести сообщение в текстовое поле, состоящее из 4097 знаков;
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Открыть главную страницу вконтакте  на русском языке;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Нажать на ссылку "все языки" в правом нижнем углу;
+Ввести поочередно в поисковое поле:
+1. Немецкий
+2. Deutsch</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать друга, у которого с нами есть переписка;
+Выбрать сообщение;
+Нажать кнопку "Переслать";
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать друга, у которого с нами есть переписка;
+Выбрать сообщение;
+Нажать кнопку "Ответить";
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>№</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -96,63 +416,12 @@
         <x:color rgb="ff000000"/>
       </x:rPr>
       <x:t xml:space="preserve">Выбрать друга, которому надо написать сообщение;
-Навести курсор на изображение скрепки;
-Выбрать пункт "Видеозапись";
-Поочередно прикрепить видеозапись с помощью кнопки:
-1. "Загрузить видео"
-2. "Добавить по ссылке"
-Нажать "Enter"
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, которому надо написать сообщение;
 Нажать кнопку с изображением фотоаппарата;
 Поочередно попытаться загрузить:
 1. Фото с компьютера, очень большого размера, не подходящее по требованию разработчиков
 2. Большое количество видео с компьютера, не подходящее по требованию разработчиков
 3. Файлы с расширением .exe
 4. Файлы с расширением .pdf
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, у которого с нами есть переписка;
-Навести курсор мыши на иконку с изображенем меню;
-Выбрать команду "Очистить историю сообщений";
-Подтвердить удаления, нажав кнопку "Удалить";
 </x:t>
     </x:r>
   </x:si>
@@ -193,6 +462,325 @@
         <x:color rgb="ff000000"/>
         <x:i val="1"/>
       </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать друга, у которого с нами есть переписка;
+Выбрать сообщение;
+Нажать на иконку с изображением звездочки напротив сообщения;
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Открыть главную страницу вконтакте на русском языке;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Нажать на ссылку "все языки" в правом нижнем углу;</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Перейти на сайт vk.com;
+Выбрать ссылку "Русский" в правом нижнем углу;
+Выбрать ссылку "English" в правом нижнем углу;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Перейти на сайт vk.com;
+Поля "Телефон или email" и "Пароль" оставить пустыми;
+Нажать кнопку "Войти";</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразилось поле "Создание беседы" с поисковым полем с текстом-подсказкой "Введите имя или фамилию"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Нет кнопки отправки, на её месте кнопка в виде "микрофона"  с текстом-подсказкой "Голосовое сообщение"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Перейти на сайт vk.com;
+Ввести в поле "Телефон или email": 89117654321;
+Нажать кнопку "Забыли пароль?";</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Шрифт, размер, взаимное расположение кнопок, команд и их названий совпадает с требованиями разработчика</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразилось окно "Создание беседы" с возможностью добавить собеседника</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразилось окно "Переслать сообщение". Курсор мигает в поисковом поле</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразилось сообщение: "По Вашему запросу не найдено ни одного языка"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразилось поле с текстом "Не найдено сообщений по такому запросу"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отправились данные, введенные в текстовое поле, всем выбранным друзьям</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие:  Выбрать пункт "Сообщения" вконтакте, предварительно с добавленными друзьями из БД;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Набрать в поисковом поле поочередно:
+1. цифры
+2. спец. символы
+3. не существующих людей в друзьях;</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать друга, у которого с нами есть переписка;
+Нажать на иконку с изображением лупы;
+Выбрать дату в календаре;
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Проверка отправки сообщений недопустимому числу пользователей</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка входа на сайт при нажатии "Enter" с помощью телефона</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Изменилось название пункта на "Отключить звуковое уведомление"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразилось пустое поисковое окно с текстом подсказкой "Поиск"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Позитивная проверка работы кнопки с изображением фотоаппарата</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Негативная проверка работы кнопки с изображением фотоаппарата</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка отправка текстовых сообщений</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка отмены поля "Создание беседы"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка закрытие окна "Выбор языка"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразилась главная страница вконтакте</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразилось окно "Выберите Ваш язык"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразились сообщения по искомой дате</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразилось окно с названием "Спам"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка пункта "Настройки уведомлений"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка команды "Показать вложения"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка удаления, выбранного сообщения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка выбора непрочитанных сообщений</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка отправки пустового сообщения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразились только важные сообщения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразилось окно для перевода денег</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка опечаток в названия кнопок и комад</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Все названия кнопок и команд без опечаток</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка отправки подарка через "Вложения"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Открылось окно с добавленными вложениями</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка пункта "Перейти в новый интерфейс"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Все названия кнопок и команд на одном языке</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка команды "Добавить собеседников"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка функции отмены у поискового поля</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка отправки карты через "Вложения"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка закрытия окна "Выберите Ваш язык"</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Позитивный вход на сайт с помощью телефона </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразились только непрочитанные сообщения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка работы ссылки "все языки"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка работы кнопки "Ответить"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка функции поискового поля</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка открытие вкладка "Деньги"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Файл отобразился в окне переписке</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка выбора важных сообщений</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка работы кнопки "Переслать"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка поиска сообщений по дате</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Негативная проверка поискового поля</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Перейти на сайт vk.com;
+Ввести в поле "Телефон или email" : vera.s@ya.ru;
+Ввести в поле "Пароль" не существующий пароль;
+Нажать кнопку "Войти";</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения" вконтакте;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Нажать на иконку с изображением значка настройки;
+Выбрать пункт "Перейти в новый интерфейс";</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>В окне "Выберите Ваш язык" отобразился: "Deutsch"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Окно с перепиской данного пользователя стало пустым</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Негативная проверка ввода данных в текстовое пое</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Осуществлен переход на главную страницу вконтакте</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вход с корректным паролем и несоответсвующим email</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения"вконтакте;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Оставить поле пустым и нажать кнопку "+";</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Отобразились кнопка "Искать в личных сообщениях" и поле "Беседы"  с искомыми пользователями</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразилось окно "Настройки отправки" с работающим переключателем между способом отправки</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
       <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
 </x:t>
     </x:r>
@@ -202,11 +790,842 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, которому надо отправить смайлик;
-Нажать на иконку с изображением смайлика;
-Нажать на выбранный смайлик;
-</x:t>
-    </x:r>
+      <x:t xml:space="preserve">Выбрать друга, которому надо написать сообщение;
+Навести курсор на изображение скрепки;
+Выбрать пункт "Фотография";
+Поочередно:
+1. Загрузить фотографию
+2. Загрузить сделанный снимок
+Нажать "Enter";
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Открыть главную страницу вконтакте  на русском языке;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Нажать на ссылку "все языки" в правом нижнем углу;
+Ввести поочередно в поисковое поле:
+1. АБВГД
+2. Deutsch
+Нажать поочередно:
+1. Кнопку "Закрыть"
+2. Иконку "х" , самую верхнюю в окне "Выберите Ваш язык"</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать друга, которому надо написать сообщение;
+Навести курсор на изображение скрепки;
+Выбрать пункт "Аудиозапись";
+Прикрепить выбранную аудиозапись;
+Нажать "Enter";
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Зайти на страницу пользователя вконтакте на русском языке, используя телефон или email из БД;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Нажать на иконку "стрелочка вниз" в правом верхнем углу около имени пользователя;
+Выбрать вкладку "Настройки";
+Нажать на ссылку "Изменить" на против Языка;
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать друга, которому надо написать сообщение;
+Навести курсор на изображение скрепки;
+Выбрать пункт "Подарок" с определённым количеством голосов;
+Нажать кнопку "Отправить";
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>В поле зрения появилась поисковое поле с мигающим курсором</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразились сообщения, в которых встречалось искомое слово</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка возможности выбора языка на странице пользователя</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразилось поисковое поле с текстом-подсказкой "Поиск"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Позитивная проверка поиска языка в окне "Выберите Ваш язык"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Негативная проверка поиска языка в окне "Выберите Ваш язык"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразилось отредактированное сообщение с пометкой (ред.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка входа на сайт при нажатии "Enter" с помощью email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Перейти на сайт vk.com;
+Ввести в поле "Телефон или email" : vera.s@ya.ru;
+Ввести в поле "Пароль": Useruser1;
+Нажать клавишу "Enter";</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Перейти на сайт vk.com;
+Ввести в поле "Телефон или email" : vera.sss@ya.ru;
+Ввести в поле "Пароль": Useruser1;
+Нажать кнопку "Войти";</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Перейти на сайт vk.com;
+Ввести в поле "Телефон или email": 19117654321;
+Ввести в поле "Пароль": Useruser1;
+Нажать кнопку "Войти";</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Перейти на сайт vk.com;
+Ввести в поле "Телефон или email": 89117654321;
+Ввести в поле "Пароль": Useruser1;
+Нажать клавишу "Enter";</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Перейти на сайт vk.com;
+Ввести в поле "Телефон или email" : vera.s@ya.ru;
+Ввести в поле "Пароль": Useruser1;
+Нажать кнопку "Войти";</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Перейти на сайт vk.com;
+Ввести в поле "Телефон или email": 89117654321;
+Ввести в поле "Пароль": Useruser1;
+Нажать кнопку "Войти";</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Команда корректно не выполняется (т.к., допустим от разработчика узнали, что одноверменно можно  отправить сообщения только 30 друзьям)</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив 32 друзей из БД;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать 31 друга из предусловия;
+Ввести в текстовое поле допустимое сообщение;
+Нажать поочередно:
+1. "Enter"
+2. кнопку отправить
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Открыть главную страницу вконтакте  на русском языке;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Нажать на ссылку "все языки" в правом нижнем углу;
+Ввести поочередно в поисковое поле:
+1. АБВГД
+2. Deutsch
+Нажать иконку "х" напротив поискового поля;</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Смена пароля при входе на сайт с помощью телефона с последующим выходом и проверкой авторизации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразилось окно "Выбор языка" с ссылками на несколько основных языков и на ссылку "все языки"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Смена пароля  при входе на сайт с помощью email с последующим выходом и проверкой авторизации</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать друга, у которого с нами есть переписка;
+Выбрать сообщение;
+Нажать на иконку с изображением ведра;
+Подтвердить удаление;
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать друга, которому надо написать сообщение;
+Навести курсор на изображение скрепки;
+Выбрать пункт "Карта";
+Прикрепить выбранную карту;
+Нажать "Enter";
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать друга, которому надо написать сообщение;
+Навести курсор на изображение скрепки;
+Выбрать пункт "Документ";
+Прикрепить поочередно:
+1. Новый документ
+2. Ранее загруженный
+Нажать "Enter";
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать друга, у которого с нами есть переписка;
+Выбрать сообщение, отправленное в течение часа;
+Нажать на иконку с изображением карандаша;
+Изменить текст;
+Нажать на иконку с изображением галочки;
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Поочередно проверить названия кнопок и команд:
+1. в панели выбора вида сообщений
+2. при нажатии кнопки настройки
+3. при нажатии кнопки вложений
+4. во всплывающих подсказках
+5. при нажатии кнопки меню</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать друга, у которого с нами есть переписка;
+Навести курсор мыши на иконку с изображенем меню;
+Выбрать команду "Добавить собеседников";
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Зайти на страницу пользователя вконтакте на русском языке, используя телефон или email и пароль из БД;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Нажать на иконку "стрелочка вниз" в правом верхнем углу около имени пользователя;
+Выбрать вкладку "Настройки";
+Нажать на ссылку "Изменить" на против Языка;
+Выбрать в окне "Выбор языка" Дореволюцiонный;
+Выйти со страницы пользователя;</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Проверка смены языка на главной странице при изменение языка на странице пользователя</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка перехода главной страницы вконтакте на другой язык через ссылку "все языки"</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать друга, которому надо отправить деньги;
+Навести курсор на изображение скрепки;
+Выбрать пункт "Деньги";
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Ожидаемый результат</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма авторизации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Пункт "Сообщения"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Автоматизирвоано</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Post-release tests</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать друга, которому надо написать сообщение;
+Нажать кнопку с изображением фотоаппарата;
+Поочередно загрузить:
+1. Фото с компьютера, подходящего размера
+2. Видео с компьютера, подходящего размера
+Нажать "Enter"
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Поочередно:
+1. Оценить цвет, размер, взаимное расположение кнопок и их названий 
+2. Нажать на кнопку настройки и оценить цвет, размер, взаимное расположения название команд 
+3. Нажать кнопку вложения при вводе тесктового сообщения и оценить цвет, размер и взаимное расположение команд
+4. Нажать кнопку меню при вводе тесктового сообщения и оценить цвет, размер и взаимное расположение команд</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать друга, которому надо написать сообщение;
+Ввести сообщение в текстовое поле;
+Навести курсор на кнопку отправки;
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Войти на сайт,  используя телефон и пароль;
+Нажать на иконку "стрелочка вниз" в правом верхнем углу около имени пользователя;
+Выбрать вкладку "Настройки";
+Нажать ссылку "Изменить" напротив "Пароля";
+Изменить пароль;
+Выйти с сайта;
+Войти на сайт, используя телефон и новый пароль;</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Зайти на страницу пользователя вконтакте на русском языке, используя телефон или email и пароль из БД;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Нажать на иконку "стрелочка вниз" в правом верхнем углу около имени пользователя;
+Выбрать вкладку "Настройки";
+Нажать на ссылку "Изменить" напротив Языка;
+Нажать поочередно:
+1. Кнопку "Закрыть"
+2. На иконку "х"</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Зайти на страницу пользователя вконтакте на русском языке, используя телефон или email и пароль из БД;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Нажать на иконку "стрелочка вниз" в правом верхнем углу около имени пользователя;
+Выбрать вкладку "Настройки";
+Нажать на ссылку "Изменить" на против Языка;
+Выбрать в окне "Выбор языка" ссылку "все языки";</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения" вконткте, c отключенным звуковым уведомлением ;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Нажать на иконку с изображением значка настройки;
+Выбрать пункт "Включить звуковое уведомление";</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Зайти на страницу пользователя вконтакте на русском языке, используя телефон или email и пароль из БД;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Нажать на иконку "стрелочка вниз" в правом верхнем углу около имени пользователя;
+Выбрать вкладку "Настройки";
+Нажать на ссылку "Изменить" на против Языка;
+Выбрать в окне "Выбор языка" Дореволюцiонный язык;</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения" вконтакте, предварительно, чтобы у пользователя были прочитанные, непрочитанные и важные сообщния;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Выбрать справа пункт "Важные";</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать друга, которому надо написать сообщение;
+Оставить текстовое поле пустым;
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Проверка отмены поиска в окне "Выберите Ваш язык"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка возможности отметить сообщение как важное</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать друга, которому надо написать сообщение;
+Навести курсор на изображение скрепки;
+Выбрать пункт "Видеозапись";
+Поочередно прикрепить видеозапись с помощью кнопки:
+1. "Загрузить видео"
+2. "Добавить по ссылке"
+Нажать "Enter"
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Приоритет </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Результат
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вход с корректным паролем и несоответсвующим телефоном</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Осуществлен переход на  страницу пользователя вконтакте</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Открылась страница  "Востановление доступа к странице"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразилось поле с названием "Уведомления на сайте"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка отмены команды "Очистить историю сообщений"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Звездочка стала яркой, сообщение отметилось как важное</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка команды "Поиск по истории сообщения" чере меню</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вместо сообщени отобразился текст: "Сообщение удалено"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вход на сайт с помощью телефона и не корректным паролем</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка функции "забыли пароль" с email пользователя</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка функции поискового поля, если его не заполнять</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразилась вкладка "Общее" на странице пользователя</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка однородности языка в названиях кнопок и команд</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вход на сайт с помощью email и не корректным паролем</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Открылось окно "Выберите Ваш язык" со списком языков</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Осуществлен переход на страницу пользователя вконтакте</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Позитивный вход с помощью email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Изменился интерфейс страницы</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка выбора всех сообщений</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразилось окно с перепиской</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:i val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Выбрать друга, у которого с нами есть переписка;
+Навести курсор мыши на иконку с изображенем меню;
+Выбрать команду "Показать вложения";
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">"Перейти на сайт vk.com;
+Ввести в поле "Телефон или email": 89117654321;
+Ввести в поле "Пароль" не существующий пароль;
+Нажать кнопку "Войти";"
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка отправки фотографий через "Вложения"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отправленный файл отобразился в окне переписке</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка команды "Очистить историю сообщений"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка возможности редактирования сообщения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка отправки видеозаписей через "Вложения"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка пункта "Включить звуковые уведомления"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка поиска сообщений по истории сообщений</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Выбранный смайлик отобразится в окне переписки</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка отправки документов через "Вложения"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка смены языка на странице пользователя</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка отправки аудиозаписей через "Вложения"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Общее Passed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Название теста</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Общее Failed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Панель "Языки"</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -242,192 +1661,6 @@
         <x:color rgb="ff000000"/>
         <x:i val="1"/>
       </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения"вконтакте;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Нажать кнопку "+";
-Нажать кнопку "х" напротив "Создание беседы";</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>Отобразилась главная страница вконтакте на дореволюционном языке. На языковой панели добавилось: "Дореволюцiонный"</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Открылась страница с сообщением  "Не удаётся войти. Пожалуйста, проверьте правильность написания логина и пароля" </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка пункта "Перейти в новый интерфейс"</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, у которого с нами есть переписка;
-Нажать на иконку с изображением лупы;
-Выбрать дату в календаре;
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>Перейти на сайт vk.com;
-Ввести в поле "Телефон или email" : vera.s@ya.ru;
-Нажать кнопку "Забыли пароль?";</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения"вконтакте;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Набрать любое слово в поисковом поле;
-Нажать "х" напротив поискового слова;</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>Проверка возможности редактирования сообщения</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Открыть главную страницу вконтакте  на русском языке;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Нажать на ссылку "все языки" в правом нижнем углу;
-Ввести поочередно в поисковое поле:
-1. Немецкий
-2. Deutsch</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, которому надо написать сообщение;
-Навести курсор на изображение скрепки;
-Выбрать пункт "Аудиозапись";
-Прикрепить выбранную аудиозапись;
-Нажать "Enter";
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Результат
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Приоритет </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Главная страница вконтакте полностью отобразилась на английском языке, кроме названия языков на языковой панели</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, у которого с нами есть переписка;
-Навести курсор мыши на иконку с изображенем меню;
-Выбрать команду "Показать вложения";
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, у которого с нами есть переписка;
-Выбрать сообщение;
-Нажать на иконку с изображением звездочки напротив сообщения;
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
       <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
 </x:t>
     </x:r>
@@ -445,15 +1678,6 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>Проверка закрытие окна "Выбор языка"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразилась главная страница вконтакте</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразилось окно "Выберите Ваш язык"</x:t>
-  </x:si>
-  <x:si>
     <x:r>
       <x:rPr>
         <x:rFont val="Calibri"/>
@@ -461,19 +1685,16 @@
         <x:color rgb="ff000000"/>
         <x:i val="1"/>
       </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, у которого с нами есть переписка;
-Выбрать сообщение;
-Нажать на иконку "Это спам";
-</x:t>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения" вконтакте, предварительно, чтобы у пользователя были прочитанные, непрочитанные и важные сообщния;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Выбрать справа пункт "Все сообщения";</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -484,23 +1705,17 @@
         <x:color rgb="ff000000"/>
         <x:i val="1"/>
       </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения"вконтакте;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Оставить поле пустым и нажать кнопку "+";</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>Отобразились кнопка "Искать в личных сообщениях" и поле "Беседы"  с искомыми пользователями</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразилось окно "Настройки отправки" с работающим переключателем между способом отправки</x:t>
+      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения" вконтакте, предварительно, чтобы у пользователя были прочитанные, непрочитанные и важные сообщния;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Выбрать справа пункт "Непрочитанные";</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -510,234 +1725,21 @@
         <x:color rgb="ff000000"/>
         <x:i val="1"/>
       </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, у которого с нами есть переписка;
-Выбрать сообщение;
-Нажать кнопку "Переслать";
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">"Перейти на сайт vk.com;
-Ввести в поле "Телефон или email": 89117654321;
-Ввести в поле "Пароль" не существующий пароль;
-Нажать кнопку "Войти";"
-</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, у которого с нами есть переписка;
-Навести курсор мыши на иконку с изображенем меню;
-Выбрать команду "Поиск по истории сообщения";
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>Перейти на сайт vk.com;
-Поля "Телефон или email" и "Пароль" оставить пустыми;
-Нажать кнопку "Войти";</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразилось поле "Создание беседы" с поисковым полем с текстом-подсказкой "Введите имя или фамилию"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Нет кнопки отправки, на её месте кнопка в виде "микрофона"  с текстом-подсказкой "Голосовое сообщение"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Перейти на сайт vk.com;
-Ввести в поле "Телефон или email": 89117654321;
-Нажать кнопку "Забыли пароль?";</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Шрифт, размер, взаимное расположение кнопок, команд и их названий совпадает с требованиями разработчика</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, которому надо написать сообщение;
-Оставить текстовое поле пустым;
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения" вконтакте, предварительно, чтобы у пользователя были прочитанные, непрочитанные и важные сообщния;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Выбрать справа пункт "Все сообщения";</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения" вконтакте, предварительно, чтобы у пользователя были прочитанные, непрочитанные и важные сообщния;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Выбрать справа пункт "Непрочитанные";</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения" вконтакте, предварительно, чтобы у пользователя были прочитанные, непрочитанные и важные сообщния;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Выбрать справа пункт "Важные";</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>Открылось окно с добавленными вложениями</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразились только непрочитанные сообщения</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Все названия кнопок и команд на одном языке</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Позитивный вход на сайт с помощью телефона </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка команды "Добавить собеседников"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка функции отмены у поискового поля</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка закрытия окна "Выберите Ваш язык"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка отправки карты через "Вложения"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразилось окно для перевода денег</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразились сообщения по искомой дате</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразились только важные сообщения</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка команды "Показать вложения"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка входа на сайт при нажатии "Enter" с помощью email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразилось поисковое поле с текстом-подсказкой "Поиск"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка возможности выбора языка на странице пользователя</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Позитивная проверка поиска языка в окне "Выберите Ваш язык"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Негативная проверка поиска языка в окне "Выберите Ваш язык"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразилось отредактированное сообщение с пометкой (ред.)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>В поле зрения появилась поисковое поле с мигающим курсором</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразились сообщения, в которых встречалось искомое слово</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразилось пустое поисковое окно с текстом подсказкой "Введите название языка"</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения" вконткте;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Нажать на иконку с изображением значка настройки;
-Выбрать пункт "Настройки уведовмлений";</x:t>
+      <x:t xml:space="preserve">Предусловие: Открыть главную страницу вконтакте на русском языке;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Calibri"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Нажать на ссылку "все языки" в правом нижнем углу;
+Ввести поочередно в поисковое поле:
+1. АБВГД
+2. 12345
+3.ABCDF
+4.!</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -750,1069 +1752,67 @@
 Войти на сайт, используя email и новый пароль;</x:t>
   </x:si>
   <x:si>
-    <x:t>Главная страница вконтакте полностью отобразилась на немецком языке, кроме названия языков на языковой панели. На языковой панели появился ещё и Deutsch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка отправки видеозаписей через "Вложения"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка отправки фотографий через "Вложения"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отправленный файл отобразился в окне переписке</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка пункта "Включить звуковые уведомления"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка команды "Очистить историю сообщений"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Выбранный смайлик отобразится в окне переписки</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка поиска сообщений по истории сообщений</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка отправки аудиозаписей через "Вложения"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка отправки документов через "Вложения"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка смены языка на странице пользователя</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка отправки подарка через "Вложения"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразилось окно "Переслать сообщение". Курсор мигает в поисковом поле</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразилось сообщение: "По Вашему запросу не найдено ни одного языка"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразилось поле с текстом "Не найдено сообщений по такому запросу"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразилось окно "Создание беседы" с возможностью добавить собеседника</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Открылось окно "Выберите Ваш язык" со списком языков</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка команды "Поиск по истории сообщения" чере меню</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Вход на сайт с помощью телефона и не корректным паролем</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразилась вкладка "Общее" на странице пользователя</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка однородности языка в названиях кнопок и команд</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка функции "забыли пароль" с email пользователя</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Осуществлен переход на страницу пользователя вконтакте</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Вход на сайт с помощью email и не корректным паролем</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Вход с корректным паролем и несоответсвующим телефоном</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Вместо сообщени отобразился текст: "Сообщение удалено"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Осуществлен переход на  страницу пользователя вконтакте</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Открылась страница  "Востановление доступа к странице"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка работы кнопки "Ответить"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка работы кнопки "Переслать"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка поиска сообщений по дате</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка выбора важных сообщений</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Файл отобразился в окне переписке</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка работы ссылки "все языки"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка функции поискового поля</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка открытие вкладка "Деньги"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>В окне "Выберите Ваш язык" отобразился: "Deutsch"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Осуществлен переход на главную страницу вконтакте</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Вход с корректным паролем и несоответсвующим email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Окно с перепиской данного пользователя стало пустым</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Негативная проверка ввода данных в текстовое пое</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка возможности отметить сообщение как важное</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка отмены поиска в окне "Выберите Ваш язык"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Негативная проверка поискового поля</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Перейти на сайт vk.com;
-Ввести в поле "Телефон или email" : vera.s@ya.ru;
-Ввести в поле "Пароль" не существующий пароль;
-Нажать кнопку "Войти";</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Войти на сайт любым способом;
-Нажать на иконку "стрелочка вниз" в правом верхнем углу около имени пользователя;
-Выбрать  вкладку "выйти";</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка выбора непрочитанных сообщений</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка отправка текстовых сообщений</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка отмены поля "Создание беседы"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка удаления, выбранного сообщения</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка функции поискового поля, если его не заполнять</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразилось поле с названием "Уведомления на сайте"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка отмены команды "Очистить историю сообщений"</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Открыть главную страницу вконтакте  на русском языке;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Нажать на ссылку "все языки" в правом нижнем углу;
-Ввести поочередно в поисковое поле:
-1. АБВГД
-2. Deutsch
-Нажать поочередно:
-1. Кнопку "Закрыть"
-2. Иконку "х" , самую верхнюю в окне "Выберите Ваш язык"</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Зайти на страницу пользователя вконтакте на русском языке, используя телефон или email из БД;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Нажать на иконку "стрелочка вниз" в правом верхнем углу около имени пользователя;
-Выбрать вкладку "Настройки";
-Нажать на ссылку "Изменить" на против Языка;
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, которому надо написать сообщение;
-Навести курсор на изображение скрепки;
-Выбрать пункт "Подарок" с определённым количеством голосов;
-Нажать кнопку "Отправить";
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>Перейти на сайт vk.com;
-Выбрать ссылку "Русский" в правом нижнем углу;
-Выбрать ссылку "English" в правом нижнем углу;</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Открыть главную страницу вконтакте на русском языке;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Нажать на ссылку "все языки" в правом нижнем углу;</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, которому надо написать сообщение;
-Навести курсор на изображение скрепки;
-Выбрать пункт "Фотография";
-Поочередно:
-1. Загрузить фотографию
-2. Загрузить сделанный снимок
-Нажать "Enter";
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>Перейти на сайт vk.com;
-Ввести в поле "Телефон или email" : vera.s@ya.ru;
-Ввести в поле "Пароль": Useruser1;
-Нажать клавишу "Enter";</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Перейти на сайт vk.com;
-Ввести в поле "Телефон или email" : vera.s@ya.ru;
-Ввести в поле "Пароль": Useruser1;
-Нажать кнопку "Войти";</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Перейти на сайт vk.com;
-Ввести в поле "Телефон или email" : vera.sss@ya.ru;
-Ввести в поле "Пароль": Useruser1;
-Нажать кнопку "Войти";</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Перейти на сайт vk.com;
-Ввести в поле "Телефон или email": 89117654321;
-Ввести в поле "Пароль": Useruser1;
-Нажать кнопку "Войти";</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Перейти на сайт vk.com;
-Ввести в поле "Телефон или email": 19117654321;
-Ввести в поле "Пароль": Useruser1;
-Нажать кнопку "Войти";</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Перейти на сайт vk.com;
-Ввести в поле "Телефон или email": 89117654321;
-Ввести в поле "Пароль": Useruser1;
-Нажать клавишу "Enter";</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Открыть главную страницу вконтакте  на русском языке;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Нажать на ссылку "все языки" в правом нижнем углу;
-Ввести поочередно в поисковое поле:
-1. АБВГД
-2. Deutsch
-Нажать иконку "х" напротив поискового поля;</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив 32 друзей из БД;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать 31 друга из предусловия;
-Ввести в текстовое поле допустимое сообщение;
-Нажать поочередно:
-1. "Enter"
-2. кнопку отправить
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, которому надо отправить деньги;
-Навести курсор на изображение скрепки;
-Выбрать пункт "Деньги";
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>Изменилось название пункта на "Отключить звуковое уведомление"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Позитивная проверка работы кнопки с изображением фотоаппарата</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Негативная проверка работы кнопки с изображением фотоаппарата</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразилось пустое поисковое окно с текстом подсказкой "Поиск"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка входа на сайт при нажатии "Enter" с помощью телефона</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка отправки сообщений недопустимому числу пользователей</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Смена пароля  при входе на сайт с помощью email с последующим выходом и проверкой авторизации</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Смена пароля при входе на сайт с помощью телефона с последующим выходом и проверкой авторизации</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразилось окно "Выбор языка" с ссылками на несколько основных языков и на ссылку "все языки"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка перехода главной страницы вконтакте на другой язык через ссылку "все языки"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка смены языка на главной странице при изменение языка на странице пользователя</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка функции "забыли пароль" с использованием номера телефона пользователя</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Вход не осуществлен появилась всплывающая подсказка: "Вставить логин и пароль"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка перехода главной страницы вконтакте на другой язык с языковой панели</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразилось поисковое поле с текстом-подсказкой "Поиск по истории сообщения"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Рабочие комнады на странице пользователя отобразились на дореволюционном языке</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка возможности выбора языка ссылки "все языки" на странице пользователя</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Пункт "Сообщения"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Post-release tests</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Автоматизирвоано</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Форма авторизации</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ожидаемый результат</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Открыть главную страницу вконтакте на русском языке;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Нажать на ссылку "все языки" в правом нижнем углу;
-Ввести поочередно в поисковое поле:
-1. АБВГД
-2. 12345
-3.ABCDF
-4.!</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, у которого с нами есть переписка;
-Выбрать сообщение;
-Нажать на иконку с изображением ведра;
-Подтвердить удаление;
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, которому надо написать сообщение;
-Навести курсор на изображение скрепки;
-Выбрать пункт "Карта";
-Прикрепить выбранную карту;
-Нажать "Enter";
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>№</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, у которого с нами есть переписка;
-Выбрать сообщение, отправленное в течение часа;
-Нажать на иконку с изображением карандаша;
-Изменить текст;
-Нажать на иконку с изображением галочки;
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Поочередно проверить названия кнопок и команд:
-1. в панели выбора вида сообщений
-2. при нажатии кнопки настройки
-3. при нажатии кнопки вложений
-4. во всплывающих подсказках
-5. при нажатии кнопки меню</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Зайти на страницу пользователя вконтакте на русском языке, используя телефон или email и пароль из БД;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Нажать на иконку "стрелочка вниз" в правом верхнем углу около имени пользователя;
-Выбрать вкладку "Настройки";
-Нажать на ссылку "Изменить" на против Языка;
-Выбрать в окне "Выбор языка" Дореволюцiонный;
-Выйти со страницы пользователя;</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, которому надо написать сообщение;
-Навести курсор на изображение скрепки;
-Выбрать пункт "Документ";
-Прикрепить поочередно:
-1. Новый документ
-2. Ранее загруженный
-Нажать "Enter";
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>Войти на сайт,  используя телефон и пароль;
-Нажать на иконку "стрелочка вниз" в правом верхнем углу около имени пользователя;
-Выбрать вкладку "Настройки";
-Нажать ссылку "Изменить" напротив "Пароля";
-Изменить пароль;
-Выйти с сайта;
-Войти на сайт, используя телефон и новый пароль;</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Зайти на страницу пользователя вконтакте на русском языке, используя телефон или email и пароль из БД;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Нажать на иконку "стрелочка вниз" в правом верхнем углу около имени пользователя;
-Выбрать вкладку "Настройки";
-Нажать на ссылку "Изменить" напротив Языка;
-Нажать поочередно:
-1. Кнопку "Закрыть"
-2. На иконку "х"</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, у которого с нами есть переписка;
-Навести курсор мыши на иконку с изображенем меню;
-Выбрать команду "Добавить собеседников";
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Зайти на страницу пользователя вконтакте на русском языке, используя телефон или email и пароль из БД;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Нажать на иконку "стрелочка вниз" в правом верхнем углу около имени пользователя;
-Выбрать вкладку "Настройки";
-Нажать на ссылку "Изменить" на против Языка;
-Выбрать в окне "Выбор языка" ссылку "все языки";</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения" вконтакте;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Нажать на иконку с изображением значка настройки;
-Выбрать пункт "Спам";</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие:Открыть главную страницу вконтакте  на русском языке;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Нажать в окне "Выберите Ваш язык" на ссылку "Deutsch";</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения" вконтакте;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Нажать на иконку с изображением значка настройки;
-Выбрать пункт "Перейти в новый интерфейс";</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>Команда корректно не выполняется (т.к., допустим от разработчика узнали, что одноверменно можно  отправить сообщения только 30 друзьям)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Все названия кнопок и команд без опечаток</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка опечаток в названия кнопок и комад</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Позитивный вход с помощью email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Изменился интерфейс страницы</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка выбора всех сообщений</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразилось окно с перепиской</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка шрифтов, размеров и взаимного расположения кнопок, команд и их названий</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Звездочка стала яркой, сообщение отметилось как важное</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразилось окно с названием "Спам"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка пункта "Настройки уведомлений"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка отправки пустового сообщения</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, которому надо написать сообщение;
-Ввести сообщение в текстовое поле;
-Навести курсор на кнопку отправки;
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения" вконткте, c отключенным звуковым уведомлением ;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Нажать на иконку с изображением значка настройки;
-Выбрать пункт "Включить звуковое уведомление";</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>Не можем ввести 4097 знаков (т.к. , допустим, у разработчика узнали, что максимальное количество знаков - 4096</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Зайти на страницу пользователя вконтакте на русском языке, используя телефон или email и пароль из БД;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Нажать на иконку "стрелочка вниз" в правом верхнем углу около имени пользователя;
-Выбрать вкладку "Настройки";
-Нажать на ссылку "Изменить" на против Языка;
-Выбрать в окне "Выбор языка" Дореволюцiонный язык;</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, которому надо написать сообщение;
-Нажать кнопку с изображением фотоаппарата;
-Поочередно загрузить:
-1. Фото с компьютера, подходящего размера
-2. Видео с компьютера, подходящего размера
-Нажать "Enter"
-</x:t>
-    </x:r>
+    <x:t>Билд</x:t>
+  </x:si>
+  <x:si>
+    <x:t>задача</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IE 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>passed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Firefox</x:t>
+  </x:si>
+  <x:si>
+    <x:t>failed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дата</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Браузер</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подход</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Шаги</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отобразились все сообщения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Файлы не удалось прикрепить</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка настройки отправки</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Проверка отправки смайлика </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проверка команды "Это спам"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Общее количество тестов</x:t>
   </x:si>
   <x:si>
     <x:t>Функциональная группа</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Тест выхода с сайта </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total Automation Test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вход с путыми полями</x:t>
+  </x:si>
+  <x:si>
     <x:t>Проверка пункта "Спам"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Вход с путыми полями</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total Automation Test</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Тест выхода с сайта </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Общее количество тестов</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Вместо сообщения отобразился текст: "Сообщение помечено как спам и удалено"</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте", предварительно добавив друзей из БД;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, которому надо написать сообщение;
-Ввести сообщение в текстовое поле, состоящее из 4097 знаков;
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>Общее Passed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Общее Failed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Панель "Языки"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Название теста</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Дата</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Подход</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Браузер</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Firefox</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Шаги</x:t>
-  </x:si>
-  <x:si>
-    <x:t>failed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Билд</x:t>
-  </x:si>
-  <x:si>
-    <x:t>задача</x:t>
-  </x:si>
-  <x:si>
-    <x:t>passed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IE 11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отобразились все сообщения</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Файлы не удалось прикрепить</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка настройки отправки</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Проверка отправки смайлика </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проверка команды "Это спам"</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Выбрать друга, у которого с нами есть переписка;
-Выбрать сообщение;
-Нажать кнопку "Ответить";
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>Отправились данные, введенные в текстовое поле, всем выбранным друзьям</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:i val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Предусловие: Выбрать пункт "Сообщения вконтакте";
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Calibri"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Поочередно:
-1. Оценить цвет, размер, взаимное расположение кнопок и их названий 
-2. Нажать на кнопку настройки и оценить цвет, размер, взаимное расположения название команд 
-3. Нажать кнопку вложения при вводе тесктового сообщения и оценить цвет, размер и взаимное расположение команд
-4. Нажать кнопку меню при вводе тесктового сообщения и оценить цвет, размер и взаимное расположение команд</x:t>
-    </x:r>
   </x:si>
 </x:sst>
 </file>
@@ -3508,12 +3508,12 @@
   <x:sheetData>
     <x:row r="2" spans="2:2">
       <x:c r="B2" s="5" t="s">
-        <x:v>208</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:2">
       <x:c r="B3" s="5" t="s">
-        <x:v>205</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:2">
@@ -3541,9 +3541,9 @@
   <x:sheetPr codeName="Worksheet____5"/>
   <x:dimension ref="A1:DT100"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="11" ySplit="7" topLeftCell="XFD71" activePane="bottomRight" state="frozen"/>
-      <x:selection pane="bottomRight" activeCell="D89" activeCellId="0" sqref="D89:D89"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
+      <x:selection pane="bottomRight" activeCell="G9" activeCellId="0" sqref="G9:G9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.199999999999999"/>
@@ -3553,8 +3553,8 @@
     <x:col min="3" max="3" width="22.1640625" customWidth="1"/>
     <x:col min="4" max="4" width="39.33203125" customWidth="1"/>
     <x:col min="5" max="5" width="48.109375" customWidth="1"/>
-    <x:col min="6" max="6" width="41.1640625" customWidth="1"/>
-    <x:col min="7" max="7" width="9.5" customWidth="1"/>
+    <x:col min="6" max="6" width="25.4453125" customWidth="1"/>
+    <x:col min="7" max="7" width="7.33203125" customWidth="1"/>
     <x:col min="8" max="8" width="3.6640625" customWidth="1"/>
     <x:col min="9" max="9" width="5.5" customWidth="1"/>
     <x:col min="10" max="10" width="1.1640625" hidden="1" customWidth="1"/>
@@ -3582,7 +3582,7 @@
       <x:c r="H1" s="8"/>
       <x:c r="I1" s="8"/>
       <x:c r="J1" s="13" t="s">
-        <x:v>197</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="K1" s="11"/>
       <x:c r="L1" s="16">
@@ -3627,12 +3627,12 @@
       <x:c r="H2" s="8"/>
       <x:c r="I2" s="8"/>
       <x:c r="J2" s="13" t="s">
-        <x:v>196</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="K2" s="11"/>
       <x:c r="L2" s="17">
         <x:f>COUNTIF(L$8:L$81,"passed")</x:f>
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M2" s="11"/>
       <x:c r="N2" s="17">
@@ -3672,7 +3672,7 @@
       <x:c r="H3" s="8"/>
       <x:c r="I3" s="8"/>
       <x:c r="J3" s="18" t="s">
-        <x:v>200</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="K3" s="11"/>
       <x:c r="L3" s="22"/>
@@ -3702,7 +3702,7 @@
       <x:c r="H4" s="8"/>
       <x:c r="I4" s="8"/>
       <x:c r="J4" s="18" t="s">
-        <x:v>206</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="K4" s="11"/>
       <x:c r="L4" s="19"/>
@@ -3717,7 +3717,7 @@
       <x:c r="Y4" s="2"/>
       <x:c r="Z4" s="2"/>
     </x:row>
-    <x:row r="5" spans="1:26" ht="6" customHeight="1">
+    <x:row r="5" spans="1:26" ht="21.600000000000001" customHeight="1">
       <x:c r="A5" s="12"/>
       <x:c r="B5" s="8"/>
       <x:c r="C5" s="8"/>
@@ -3728,27 +3728,27 @@
       <x:c r="H5" s="8"/>
       <x:c r="I5" s="8"/>
       <x:c r="J5" s="18" t="s">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="K5" s="11"/>
       <x:c r="L5" s="19" t="s">
-        <x:v>203</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="M5" s="11"/>
       <x:c r="N5" s="19" t="s">
-        <x:v>203</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="O5" s="11"/>
       <x:c r="P5" s="19" t="s">
-        <x:v>203</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="Q5" s="11"/>
       <x:c r="R5" s="19" t="s">
-        <x:v>209</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="S5" s="11"/>
       <x:c r="T5" s="19" t="s">
-        <x:v>203</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="U5" s="11"/>
       <x:c r="V5" s="2"/>
@@ -3760,35 +3760,35 @@
     <x:row r="6" spans="1:26" ht="27" customHeight="1">
       <x:c r="A6" s="12"/>
       <x:c r="B6" s="51" t="s">
-        <x:v>159</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C6" s="49" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="D6" s="52" t="s">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="D6" s="52" t="s">
-        <x:v>199</x:v>
-      </x:c>
       <x:c r="E6" s="51" t="s">
-        <x:v>201</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="F6" s="51"/>
       <x:c r="G6" s="49" t="s">
-        <x:v>207</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="H6" s="53" t="s">
-        <x:v>19</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I6" s="53" t="s">
-        <x:v>153</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="J6" s="47"/>
       <x:c r="K6" s="9"/>
       <x:c r="L6" s="46" t="s">
-        <x:v>18</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="M6" s="11"/>
       <x:c r="N6" s="46" t="s">
-        <x:v>18</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="O6" s="11"/>
       <x:c r="P6" s="46"/>
@@ -3809,10 +3809,10 @@
       <x:c r="C7" s="50"/>
       <x:c r="D7" s="52"/>
       <x:c r="E7" s="24" t="s">
-        <x:v>204</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="F7" s="24" t="s">
-        <x:v>155</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G7" s="50"/>
       <x:c r="H7" s="54"/>
@@ -3841,23 +3841,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C8" s="41" t="s">
-        <x:v>154</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E8" s="7" t="s">
-        <x:v>128</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F8" s="3" t="s">
-        <x:v>88</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G8" s="20"/>
       <x:c r="H8" s="20"/>
       <x:c r="I8" s="21"/>
       <x:c r="J8" s="20"/>
       <x:c r="K8" s="10"/>
-      <x:c r="L8" s="6"/>
+      <x:c r="L8" s="6" t="s">
+        <x:v>200</x:v>
+      </x:c>
       <x:c r="M8" s="11"/>
       <x:c r="N8" s="6"/>
       <x:c r="O8" s="11"/>
@@ -3880,13 +3882,13 @@
       </x:c>
       <x:c r="C9" s="3"/>
       <x:c r="D9" s="3" t="s">
-        <x:v>192</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E9" s="7" t="s">
-        <x:v>111</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F9" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G9" s="3"/>
       <x:c r="H9" s="20"/>
@@ -3916,13 +3918,13 @@
       </x:c>
       <x:c r="C10" s="30"/>
       <x:c r="D10" s="3" t="s">
-        <x:v>174</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E10" s="7" t="s">
-        <x:v>126</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F10" s="3" t="s">
-        <x:v>88</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G10" s="31"/>
       <x:c r="H10" s="31"/>
@@ -4050,13 +4052,13 @@
       </x:c>
       <x:c r="C11" s="3"/>
       <x:c r="D11" s="3" t="s">
-        <x:v>190</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F11" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G11" s="3"/>
       <x:c r="H11" s="20"/>
@@ -4086,13 +4088,13 @@
       </x:c>
       <x:c r="C12" s="41"/>
       <x:c r="D12" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E12" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F12" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G12" s="3"/>
       <x:c r="H12" s="20"/>
@@ -4122,13 +4124,13 @@
       </x:c>
       <x:c r="C13" s="3"/>
       <x:c r="D13" s="3" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="E13" s="7" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="E13" s="7" t="s">
-        <x:v>110</x:v>
-      </x:c>
       <x:c r="F13" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G13" s="3"/>
       <x:c r="H13" s="20"/>
@@ -4158,13 +4160,13 @@
       </x:c>
       <x:c r="C14" s="3"/>
       <x:c r="D14" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E14" s="7" t="s">
-        <x:v>129</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F14" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G14" s="3"/>
       <x:c r="H14" s="20"/>
@@ -4193,13 +4195,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D15" s="3" t="s">
-        <x:v>104</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E15" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F15" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G15" s="3"/>
       <x:c r="H15" s="20"/>
@@ -4229,13 +4231,13 @@
       </x:c>
       <x:c r="C16" s="3"/>
       <x:c r="D16" s="3" t="s">
-        <x:v>145</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E16" s="7" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F16" s="3" t="s">
-        <x:v>93</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G16" s="3"/>
       <x:c r="H16" s="20"/>
@@ -4265,13 +4267,13 @@
       </x:c>
       <x:c r="C17" s="3"/>
       <x:c r="D17" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E17" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F17" s="3" t="s">
-        <x:v>93</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G17" s="3"/>
       <x:c r="H17" s="20"/>
@@ -4301,13 +4303,13 @@
       </x:c>
       <x:c r="C18" s="3"/>
       <x:c r="D18" s="3" t="s">
-        <x:v>141</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E18" s="7" t="s">
-        <x:v>164</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F18" s="3" t="s">
-        <x:v>88</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G18" s="3"/>
       <x:c r="H18" s="20"/>
@@ -4337,13 +4339,13 @@
       </x:c>
       <x:c r="C19" s="3"/>
       <x:c r="D19" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="F19" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G19" s="3"/>
       <x:c r="H19" s="20"/>
@@ -4373,13 +4375,13 @@
       </x:c>
       <x:c r="C20" s="3"/>
       <x:c r="D20" s="4" t="s">
-        <x:v>138</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>130</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F20" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G20" s="3"/>
       <x:c r="H20" s="20"/>
@@ -4409,13 +4411,13 @@
       </x:c>
       <x:c r="C21" s="3"/>
       <x:c r="D21" s="4" t="s">
-        <x:v>55</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
-        <x:v>125</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F21" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G21" s="3"/>
       <x:c r="H21" s="20"/>
@@ -4444,16 +4446,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C22" s="43" t="s">
-        <x:v>198</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D22" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E22" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F22" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G22" s="3"/>
       <x:c r="H22" s="20"/>
@@ -4483,13 +4485,13 @@
       </x:c>
       <x:c r="C23" s="3"/>
       <x:c r="D23" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E23" s="42" t="s">
-        <x:v>123</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F23" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G23" s="3"/>
       <x:c r="H23" s="20"/>
@@ -4519,13 +4521,13 @@
       </x:c>
       <x:c r="C24" s="3"/>
       <x:c r="D24" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E24" s="42" t="s">
-        <x:v>16</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F24" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G24" s="3"/>
       <x:c r="H24" s="20"/>
@@ -4555,13 +4557,13 @@
       </x:c>
       <x:c r="C25" s="3"/>
       <x:c r="D25" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E25" s="42" t="s">
-        <x:v>156</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F25" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G25" s="3"/>
       <x:c r="H25" s="20"/>
@@ -4591,13 +4593,13 @@
       </x:c>
       <x:c r="C26" s="3"/>
       <x:c r="D26" s="3" t="s">
-        <x:v>143</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E26" s="42" t="s">
-        <x:v>169</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F26" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G26" s="3"/>
       <x:c r="H26" s="20"/>
@@ -4627,13 +4629,13 @@
       </x:c>
       <x:c r="C27" s="3"/>
       <x:c r="D27" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E27" s="42" t="s">
-        <x:v>119</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F27" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G27" s="3"/>
       <x:c r="H27" s="20"/>
@@ -4663,13 +4665,13 @@
       </x:c>
       <x:c r="C28" s="3"/>
       <x:c r="D28" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E28" s="42" t="s">
-        <x:v>131</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F28" s="3" t="s">
-        <x:v>63</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G28" s="3"/>
       <x:c r="H28" s="20"/>
@@ -4699,13 +4701,13 @@
       </x:c>
       <x:c r="C29" s="3"/>
       <x:c r="D29" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E29" s="42" t="s">
-        <x:v>120</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F29" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G29" s="3"/>
       <x:c r="H29" s="20"/>
@@ -4735,13 +4737,13 @@
       </x:c>
       <x:c r="C30" s="3"/>
       <x:c r="D30" s="3" t="s">
-        <x:v>150</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E30" s="42" t="s">
-        <x:v>167</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F30" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G30" s="3"/>
       <x:c r="H30" s="20"/>
@@ -4771,13 +4773,13 @@
       </x:c>
       <x:c r="C31" s="3"/>
       <x:c r="D31" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E31" s="42" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="F31" s="3" t="s">
         <x:v>165</x:v>
-      </x:c>
-      <x:c r="F31" s="3" t="s">
-        <x:v>85</x:v>
       </x:c>
       <x:c r="G31" s="3"/>
       <x:c r="H31" s="20"/>
@@ -4807,13 +4809,13 @@
       </x:c>
       <x:c r="C32" s="3"/>
       <x:c r="D32" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E32" s="42" t="s">
-        <x:v>186</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F32" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G32" s="3"/>
       <x:c r="H32" s="20"/>
@@ -4843,13 +4845,13 @@
       </x:c>
       <x:c r="C33" s="3"/>
       <x:c r="D33" s="3" t="s">
-        <x:v>144</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E33" s="42" t="s">
-        <x:v>162</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F33" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G33" s="3"/>
       <x:c r="H33" s="20"/>
@@ -4878,16 +4880,16 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D34" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E34" s="44" t="s">
-        <x:v>1</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F34" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G34" s="3"/>
       <x:c r="H34" s="20"/>
@@ -4917,13 +4919,13 @@
       </x:c>
       <x:c r="C35" s="3"/>
       <x:c r="D35" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E35" s="44" t="s">
-        <x:v>28</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F35" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G35" s="3"/>
       <x:c r="H35" s="20"/>
@@ -4953,13 +4955,13 @@
       </x:c>
       <x:c r="C36" s="3"/>
       <x:c r="D36" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E36" s="44" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F36" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G36" s="3"/>
       <x:c r="H36" s="20"/>
@@ -4989,13 +4991,13 @@
       </x:c>
       <x:c r="C37" s="3"/>
       <x:c r="D37" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E37" s="44" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F37" s="3" t="s">
-        <x:v>137</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G37" s="3"/>
       <x:c r="H37" s="20"/>
@@ -5018,20 +5020,20 @@
       <x:c r="Y37" s="2"/>
       <x:c r="Z37" s="2"/>
     </x:row>
-    <x:row r="38" spans="1:26" ht="99.200000000000003">
+    <x:row r="38" spans="1:26" ht="85.049999999999997">
       <x:c r="A38" s="12"/>
       <x:c r="B38" s="3">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C38" s="14"/>
       <x:c r="D38" s="14" t="s">
-        <x:v>109</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E38" s="45" t="s">
-        <x:v>0</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F38" s="14" t="s">
-        <x:v>80</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G38" s="3"/>
       <x:c r="H38" s="20"/>
@@ -5061,13 +5063,13 @@
       </x:c>
       <x:c r="C39" s="3"/>
       <x:c r="D39" s="3" t="s">
-        <x:v>176</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E39" s="44" t="s">
-        <x:v>40</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F39" s="3" t="s">
-        <x:v>210</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="G39" s="3"/>
       <x:c r="H39" s="20"/>
@@ -5097,13 +5099,13 @@
       </x:c>
       <x:c r="C40" s="3"/>
       <x:c r="D40" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E40" s="44" t="s">
-        <x:v>41</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F40" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G40" s="3"/>
       <x:c r="H40" s="20"/>
@@ -5133,13 +5135,13 @@
       </x:c>
       <x:c r="C41" s="3"/>
       <x:c r="D41" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E41" s="44" t="s">
-        <x:v>42</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F41" s="3" t="s">
-        <x:v>53</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G41" s="3"/>
       <x:c r="H41" s="20"/>
@@ -5169,13 +5171,13 @@
       </x:c>
       <x:c r="C42" s="3"/>
       <x:c r="D42" s="3" t="s">
-        <x:v>189</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E42" s="44" t="s">
-        <x:v>168</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F42" s="3" t="s">
-        <x:v>180</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G42" s="3"/>
       <x:c r="H42" s="20"/>
@@ -5205,13 +5207,13 @@
       </x:c>
       <x:c r="C43" s="14"/>
       <x:c r="D43" s="14" t="s">
-        <x:v>70</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E43" s="44" t="s">
-        <x:v>184</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F43" s="14" t="s">
-        <x:v>134</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G43" s="3"/>
       <x:c r="H43" s="20"/>
@@ -5234,20 +5236,20 @@
       <x:c r="Y43" s="2"/>
       <x:c r="Z43" s="2"/>
     </x:row>
-    <x:row r="44" spans="1:26" ht="56.700000000000003">
+    <x:row r="44" spans="1:26" ht="42.549999999999997">
       <x:c r="A44" s="12"/>
       <x:c r="B44" s="3">
         <x:v>37</x:v>
       </x:c>
       <x:c r="C44" s="3"/>
       <x:c r="D44" s="3" t="s">
-        <x:v>181</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E44" s="44" t="s">
-        <x:v>64</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F44" s="3" t="s">
-        <x:v>117</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="G44" s="3"/>
       <x:c r="H44" s="20"/>
@@ -5277,13 +5279,13 @@
       </x:c>
       <x:c r="C45" s="3"/>
       <x:c r="D45" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E45" s="44" t="s">
-        <x:v>170</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F45" s="3" t="s">
-        <x:v>175</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G45" s="3"/>
       <x:c r="H45" s="20"/>
@@ -5313,13 +5315,13 @@
       </x:c>
       <x:c r="C46" s="3"/>
       <x:c r="D46" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E46" s="44" t="s">
-        <x:v>5</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F46" s="3" t="s">
-        <x:v>216</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G46" s="3"/>
       <x:c r="H46" s="20"/>
@@ -5349,13 +5351,13 @@
       </x:c>
       <x:c r="C47" s="3"/>
       <x:c r="D47" s="3" t="s">
-        <x:v>212</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E47" s="44" t="s">
-        <x:v>183</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F47" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G47" s="3"/>
       <x:c r="H47" s="20"/>
@@ -5385,13 +5387,13 @@
       </x:c>
       <x:c r="C48" s="3"/>
       <x:c r="D48" s="3" t="s">
-        <x:v>182</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E48" s="44" t="s">
-        <x:v>39</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F48" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G48" s="3"/>
       <x:c r="H48" s="20"/>
@@ -5421,13 +5423,13 @@
       </x:c>
       <x:c r="C49" s="3"/>
       <x:c r="D49" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E49" s="44" t="s">
-        <x:v>195</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F49" s="3" t="s">
-        <x:v>185</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G49" s="3"/>
       <x:c r="H49" s="20"/>
@@ -5457,13 +5459,13 @@
       </x:c>
       <x:c r="C50" s="3"/>
       <x:c r="D50" s="3" t="s">
-        <x:v>139</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E50" s="44" t="s">
-        <x:v>132</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F50" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G50" s="3"/>
       <x:c r="H50" s="20"/>
@@ -5493,13 +5495,13 @@
       </x:c>
       <x:c r="C51" s="14"/>
       <x:c r="D51" s="14" t="s">
-        <x:v>173</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E51" s="45" t="s">
-        <x:v>161</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F51" s="14" t="s">
-        <x:v>172</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G51" s="3"/>
       <x:c r="H51" s="20"/>
@@ -5529,13 +5531,13 @@
       </x:c>
       <x:c r="C52" s="14"/>
       <x:c r="D52" s="14" t="s">
-        <x:v>86</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E52" s="45" t="s">
-        <x:v>161</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F52" s="14" t="s">
-        <x:v>45</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G52" s="3"/>
       <x:c r="H52" s="20"/>
@@ -5565,13 +5567,13 @@
       </x:c>
       <x:c r="C53" s="14"/>
       <x:c r="D53" s="14" t="s">
-        <x:v>178</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E53" s="45" t="s">
-        <x:v>217</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F53" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G53" s="3"/>
       <x:c r="H53" s="20"/>
@@ -5601,13 +5603,13 @@
       </x:c>
       <x:c r="C54" s="14"/>
       <x:c r="D54" s="14" t="s">
-        <x:v>213</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E54" s="44" t="s">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F54" s="14" t="s">
-        <x:v>72</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="G54" s="3"/>
       <x:c r="H54" s="20"/>
@@ -5637,13 +5639,13 @@
       </x:c>
       <x:c r="C55" s="14"/>
       <x:c r="D55" s="14" t="s">
-        <x:v>135</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E55" s="44" t="s">
-        <x:v>187</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="F55" s="14" t="s">
-        <x:v>69</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="G55" s="3"/>
       <x:c r="H55" s="20"/>
@@ -5673,13 +5675,13 @@
       </x:c>
       <x:c r="C56" s="14"/>
       <x:c r="D56" s="14" t="s">
-        <x:v>136</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E56" s="44" t="s">
-        <x:v>3</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F56" s="14" t="s">
-        <x:v>211</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="G56" s="3"/>
       <x:c r="H56" s="20"/>
@@ -5709,13 +5711,13 @@
       </x:c>
       <x:c r="C57" s="14"/>
       <x:c r="D57" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E57" s="44" t="s">
-        <x:v>124</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F57" s="14" t="s">
-        <x:v>98</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G57" s="3"/>
       <x:c r="H57" s="20"/>
@@ -5745,13 +5747,13 @@
       </x:c>
       <x:c r="C58" s="14"/>
       <x:c r="D58" s="14" t="s">
-        <x:v>67</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E58" s="44" t="s">
-        <x:v>2</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F58" s="14" t="s">
-        <x:v>98</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G58" s="3"/>
       <x:c r="H58" s="20"/>
@@ -5781,13 +5783,13 @@
       </x:c>
       <x:c r="C59" s="14"/>
       <x:c r="D59" s="14" t="s">
-        <x:v>74</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E59" s="44" t="s">
-        <x:v>17</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F59" s="14" t="s">
-        <x:v>98</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G59" s="3"/>
       <x:c r="H59" s="20"/>
@@ -5817,13 +5819,13 @@
       </x:c>
       <x:c r="C60" s="14"/>
       <x:c r="D60" s="14" t="s">
-        <x:v>75</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E60" s="44" t="s">
-        <x:v>163</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F60" s="14" t="s">
-        <x:v>98</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G60" s="3"/>
       <x:c r="H60" s="20"/>
@@ -5853,13 +5855,13 @@
       </x:c>
       <x:c r="C61" s="14"/>
       <x:c r="D61" s="14" t="s">
-        <x:v>50</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E61" s="44" t="s">
-        <x:v>158</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F61" s="14" t="s">
-        <x:v>98</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G61" s="3"/>
       <x:c r="H61" s="20"/>
@@ -5889,13 +5891,13 @@
       </x:c>
       <x:c r="C62" s="14"/>
       <x:c r="D62" s="14" t="s">
-        <x:v>77</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E62" s="44" t="s">
-        <x:v>121</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F62" s="14" t="s">
-        <x:v>98</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G62" s="3"/>
       <x:c r="H62" s="20"/>
@@ -5925,13 +5927,13 @@
       </x:c>
       <x:c r="C63" s="14"/>
       <x:c r="D63" s="14" t="s">
-        <x:v>101</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E63" s="44" t="s">
         <x:v>133</x:v>
       </x:c>
       <x:c r="F63" s="14" t="s">
-        <x:v>51</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G63" s="3"/>
       <x:c r="H63" s="20"/>
@@ -5961,13 +5963,13 @@
       </x:c>
       <x:c r="C64" s="14"/>
       <x:c r="D64" s="14" t="s">
-        <x:v>73</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E64" s="44" t="s">
-        <x:v>23</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F64" s="14" t="s">
-        <x:v>62</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G64" s="3"/>
       <x:c r="H64" s="20"/>
@@ -5997,13 +5999,13 @@
       </x:c>
       <x:c r="C65" s="14"/>
       <x:c r="D65" s="14" t="s">
-        <x:v>96</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E65" s="44" t="s">
-        <x:v>12</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F65" s="14" t="s">
-        <x:v>52</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G65" s="3"/>
       <x:c r="H65" s="20"/>
@@ -6033,13 +6035,13 @@
       </x:c>
       <x:c r="C66" s="14"/>
       <x:c r="D66" s="14" t="s">
-        <x:v>47</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E66" s="44" t="s">
-        <x:v>166</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F66" s="14" t="s">
-        <x:v>81</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G66" s="3"/>
       <x:c r="H66" s="20"/>
@@ -6069,13 +6071,13 @@
       </x:c>
       <x:c r="C67" s="14"/>
       <x:c r="D67" s="14" t="s">
-        <x:v>54</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E67" s="44" t="s">
-        <x:v>21</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F67" s="14" t="s">
-        <x:v>43</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G67" s="3"/>
       <x:c r="H67" s="20"/>
@@ -6105,13 +6107,13 @@
       </x:c>
       <x:c r="C68" s="14"/>
       <x:c r="D68" s="14" t="s">
-        <x:v>83</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E68" s="44" t="s">
-        <x:v>33</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F68" s="14" t="s">
-        <x:v>148</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G68" s="3"/>
       <x:c r="H68" s="20"/>
@@ -6141,13 +6143,13 @@
       </x:c>
       <x:c r="C69" s="14"/>
       <x:c r="D69" s="14" t="s">
-        <x:v>71</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E69" s="44" t="s">
-        <x:v>4</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F69" s="14" t="s">
-        <x:v>105</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G69" s="3"/>
       <x:c r="H69" s="20"/>
@@ -6177,13 +6179,13 @@
       </x:c>
       <x:c r="C70" s="14"/>
       <x:c r="D70" s="14" t="s">
-        <x:v>118</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E70" s="44" t="s">
-        <x:v>7</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F70" s="14" t="s">
-        <x:v>177</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G70" s="3"/>
       <x:c r="H70" s="20"/>
@@ -6213,13 +6215,13 @@
       </x:c>
       <x:c r="C71" s="14"/>
       <x:c r="D71" s="14" t="s">
-        <x:v>15</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E71" s="44" t="s">
-        <x:v>160</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F71" s="14" t="s">
-        <x:v>60</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G71" s="3"/>
       <x:c r="H71" s="20"/>
@@ -6249,13 +6251,13 @@
       </x:c>
       <x:c r="C72" s="14"/>
       <x:c r="D72" s="14" t="s">
-        <x:v>115</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E72" s="44" t="s">
-        <x:v>157</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F72" s="14" t="s">
-        <x:v>91</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G72" s="3"/>
       <x:c r="H72" s="20"/>
@@ -6285,13 +6287,13 @@
       </x:c>
       <x:c r="C73" s="14"/>
       <x:c r="D73" s="14" t="s">
-        <x:v>214</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E73" s="44" t="s">
-        <x:v>27</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F73" s="14" t="s">
-        <x:v>194</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G73" s="3"/>
       <x:c r="H73" s="20"/>
@@ -6321,13 +6323,13 @@
       </x:c>
       <x:c r="C74" s="14"/>
       <x:c r="D74" s="14" t="s">
-        <x:v>107</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E74" s="44" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F74" s="14" t="s">
-        <x:v>179</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G74" s="3"/>
       <x:c r="H74" s="20"/>
@@ -6357,13 +6359,13 @@
       </x:c>
       <x:c r="C75" s="14"/>
       <x:c r="D75" s="14" t="s">
-        <x:v>94</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E75" s="44" t="s">
-        <x:v>215</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F75" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G75" s="3"/>
       <x:c r="H75" s="20"/>
@@ -6393,13 +6395,13 @@
       </x:c>
       <x:c r="C76" s="14"/>
       <x:c r="D76" s="14" t="s">
-        <x:v>95</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E76" s="44" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F76" s="14" t="s">
-        <x:v>78</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G76" s="3"/>
       <x:c r="H76" s="20"/>
@@ -6457,7 +6459,7 @@
       <x:c r="B78" s="23"/>
       <x:c r="C78" s="23"/>
       <x:c r="D78" s="23" t="s">
-        <x:v>191</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E78" s="23">
         <x:f>COUNT(I8:I81)</x:f>
@@ -6490,7 +6492,7 @@
       <x:c r="B79" s="23"/>
       <x:c r="C79" s="23"/>
       <x:c r="D79" s="23" t="s">
-        <x:v>193</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E79" s="23">
         <x:f>COUNTA(D8:D77)</x:f>
@@ -6523,7 +6525,7 @@
       <x:c r="B80" s="23"/>
       <x:c r="C80" s="23"/>
       <x:c r="D80" s="23" t="s">
-        <x:v>152</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E80" s="23">
         <x:f>COUNT(J8:J81)</x:f>
@@ -7018,7 +7020,7 @@
     <x:mergeCell ref="C6:C7"/>
   </x:mergeCells>
   <x:dataValidations count="2">
-    <x:dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N9 L8:L9 R8:R9 P8:P9 T8:T9 L11:L81 R11:R81 P11:P81 T11:T81 N11:N81">
+    <x:dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L8:L9 N8:N9 R8:R9 P8:P9 T8:T9 L11:L81 R11:R81 P11:P81 T11:T81 N11:N81">
       <x:formula1>Result</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="list" showErrorMessage="1" sqref="AB10:AB10 AD10:AD10 AJ10:AJ10 AL10:AL10 AN10:AN10 AP10:AP10 AR10:AR10 AV10:AV10 AX10:AX10 AZ10:AZ10 BB10:BB10 BD10:BD10 BF10:BF10 BH10:BH10 BJ10:BJ10 BL10:BL10 BN10:BN10 BP10:BP10 BR10:BR10 BT10:BT10 BV10:BV10 BX10:BX10 BZ10:BZ10 CF10:CF10 CH10:CH10 CL10:CL10 CN10:CN10 CP10:CP10 CR10:CR10 CT10:CT10 CV10:CV10 CX10:CX10 CZ10:CZ10 DB10:DB10 DD10:DD10 DF10:DF10 DH10:DH10 DJ10:DT10 CB10:CB10 CJ10:CJ10 N10:N10 P10:P10 R10:R10 T10:T10 V10:V10 X10:X10 Z10:Z10 AF10:AF10 AH10:AH10 AT10:AT10">
